--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\TFEL\TravelingDrop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F57F5-C1C7-4ECD-A4C5-1664AFFA5FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56051A1E-0326-4133-B79F-1604C9F2DC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="15390" windowHeight="9653" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Parameter</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>T_inf</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>time step in runge-kutta integration</t>
   </si>
 </sst>
 </file>
@@ -783,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83911E1-D196-4342-AA75-17E7EE4E9A3C}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1034,6 +1043,20 @@
         <v>73</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
